--- a/docs/v4.0.4/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/docs/v4.0.4/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -885,7 +885,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="146">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de ICTU Kwaliteitsaanpak Softwareontwikkeling versie v4.0.4, 16-12-2024.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de ICTU Kwaliteitsaanpak Softwareontwikkeling versie v4.0.4, 20-12-2024.</t>
   </si>
   <si>
     <t>Gebruik de 'Status' kolom om aan te geven in hoeverre een maatregel uit de Kwaliteitsaanpak is toegepast. Bij maatregelen met submaatregelen hoeft alleen de status van de submaatregelen te worden ingevuld.</t>
